--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1680341194487122</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320276731181903</v>
+        <v>-1.318898445784086</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1646048657849409</v>
+        <v>-0.1672592332142129</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1274962835064054</v>
+        <v>-0.1292717019849504</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1884233605657654</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388065303994703</v>
+        <v>-1.388439076305976</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2322941553275591</v>
+        <v>-0.2353573362222856</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1325232290834041</v>
+        <v>-0.1337146283255856</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2086266029477343</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491179740367039</v>
+        <v>-1.492302517348948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2795661323669101</v>
+        <v>-0.2815926791170913</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1371968430224028</v>
+        <v>-0.1385780485164025</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2172142548106854</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.641869843781635</v>
+        <v>-1.644938864868725</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2910464905057252</v>
+        <v>-0.2922130689303612</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1478916952883091</v>
+        <v>-0.1489502301542178</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.211170606449654</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.736365616273337</v>
+        <v>-1.739335354090245</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2896944859735437</v>
+        <v>-0.2911983355071797</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1668387393640312</v>
+        <v>-0.1667248556129404</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1943165646963157</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.57678820012938</v>
+        <v>-1.57995358439047</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2228461841312889</v>
+        <v>-0.223996702026925</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.17485440338312</v>
+        <v>-0.1734074957250295</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.177009102226586</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419930853578786</v>
+        <v>-1.421338339938422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1455132769482188</v>
+        <v>-0.1477150294693091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1534179773123985</v>
+        <v>-0.1530923865881259</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1671375173512113</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15053446022904</v>
+        <v>-1.151514152498039</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003443297462347843</v>
+        <v>-0.005842156475710835</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1315362365739498</v>
+        <v>-0.130366738053132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1653690089266831</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7810838913055027</v>
+        <v>-0.7805772546179574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08230094677244731</v>
+        <v>0.08068467353581138</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1188776196257714</v>
+        <v>-0.1171211817724082</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1663604520833739</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4081657081660574</v>
+        <v>-0.4056821663634216</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1272529073953443</v>
+        <v>0.1236553488993453</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07424248943860155</v>
+        <v>-0.07350954529696539</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1666707531122164</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05984832723045334</v>
+        <v>0.06292026841372525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1398852434778864</v>
+        <v>0.1373374595592507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02719727177346211</v>
+        <v>0.02765572687400744</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1644296162152825</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5998325131721265</v>
+        <v>0.6029088344996711</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05956361785272615</v>
+        <v>0.05732682417745402</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1771850920563309</v>
+        <v>0.1790889947668759</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1552414847194599</v>
       </c>
       <c r="E14" t="n">
-        <v>1.162952621162339</v>
+        <v>1.166921031873429</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08888677179041581</v>
+        <v>-0.08943720992068839</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3059905346362963</v>
+        <v>0.3078199748942049</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1333893906591691</v>
       </c>
       <c r="E15" t="n">
-        <v>1.811570225259983</v>
+        <v>1.814110708938164</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2595503330886427</v>
+        <v>-0.2576712511956432</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4882308172473383</v>
+        <v>0.4891112262461563</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.09608406891288709</v>
       </c>
       <c r="E16" t="n">
-        <v>2.437716229190451</v>
+        <v>2.441929927980814</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4967614263223972</v>
+        <v>-0.4946516568310341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.605342734667216</v>
+        <v>0.6067137198245792</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.0446011027402324</v>
       </c>
       <c r="E17" t="n">
-        <v>3.048506907348833</v>
+        <v>3.053078317921468</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6303967079870886</v>
+        <v>-0.6290841247533616</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7923208733332566</v>
+        <v>0.7930800983405292</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.01560995899361715</v>
       </c>
       <c r="E18" t="n">
-        <v>3.646199494083672</v>
+        <v>3.653854526224306</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7531955127210556</v>
+        <v>-0.7521282175666013</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9355559711956728</v>
+        <v>0.9350464144119456</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.07731326894356033</v>
       </c>
       <c r="E19" t="n">
-        <v>4.180511393192165</v>
+        <v>4.187983919321436</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9116881131334676</v>
+        <v>-0.9101492224456498</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087704662653086</v>
+        <v>1.087465214766177</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.135752114705501</v>
       </c>
       <c r="E20" t="n">
-        <v>4.723950052916928</v>
+        <v>4.731301395054653</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.12585526734841</v>
+        <v>-1.125167584697592</v>
       </c>
       <c r="G20" t="n">
-        <v>1.24700320961168</v>
+        <v>1.246668858598862</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.1898406850159425</v>
       </c>
       <c r="E21" t="n">
-        <v>5.182393473077532</v>
+        <v>5.191510013357166</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.28236804254955</v>
+        <v>-1.281635098407914</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422792999757087</v>
+        <v>1.422855781824997</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2387726266633499</v>
       </c>
       <c r="E22" t="n">
-        <v>5.58730569003306</v>
+        <v>5.595943334538876</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.48931671900304</v>
+        <v>-1.488975067749767</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539225994814692</v>
+        <v>1.538532471971511</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2808789546064647</v>
       </c>
       <c r="E23" t="n">
-        <v>5.858252654455351</v>
+        <v>5.867928393153803</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.668017845041719</v>
+        <v>-1.668908474377173</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699539275196468</v>
+        <v>1.699456052455286</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.3147286550343439</v>
       </c>
       <c r="E24" t="n">
-        <v>6.163738516516178</v>
+        <v>6.172903238382812</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.840967111626264</v>
+        <v>-1.841551860886673</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814744369809618</v>
+        <v>1.813319362872892</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.3397970693883817</v>
       </c>
       <c r="E25" t="n">
-        <v>6.377147905771939</v>
+        <v>6.385706707680845</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.975969728328091</v>
+        <v>-1.977169887858818</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917974149981136</v>
+        <v>1.915981184337046</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3567560169050332</v>
       </c>
       <c r="E26" t="n">
-        <v>6.477822601784366</v>
+        <v>6.48525132647091</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.083335824741153</v>
+        <v>-2.083871662390516</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98154318381121</v>
+        <v>1.98025834149121</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3671326639285067</v>
       </c>
       <c r="E27" t="n">
-        <v>6.531393226287897</v>
+        <v>6.538944595014077</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.172181211121038</v>
+        <v>-2.171673844409447</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063986259312461</v>
+        <v>2.062461969105552</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.3729893146250212</v>
       </c>
       <c r="E28" t="n">
-        <v>6.64245616446714</v>
+        <v>6.649797286268229</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.232707504729659</v>
+        <v>-2.231059840459068</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093632535798362</v>
+        <v>2.092579841124817</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.375674972225881</v>
       </c>
       <c r="E29" t="n">
-        <v>6.579652195836703</v>
+        <v>6.587206484659064</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293179776558915</v>
+        <v>-2.29181390156987</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140429997208167</v>
+        <v>2.13876262228835</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.3758403532512349</v>
       </c>
       <c r="E30" t="n">
-        <v>6.544083964294076</v>
+        <v>6.553679400347527</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328987455988451</v>
+        <v>-2.327193056884724</v>
       </c>
       <c r="G30" t="n">
-        <v>2.125245497062717</v>
+        <v>2.123264211803354</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3733125783970806</v>
       </c>
       <c r="E31" t="n">
-        <v>6.455552488253736</v>
+        <v>6.46482963382337</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311373435819728</v>
+        <v>-2.308930775363638</v>
       </c>
       <c r="G31" t="n">
-        <v>2.109165987437539</v>
+        <v>2.105800576587995</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3672153273649524</v>
       </c>
       <c r="E32" t="n">
-        <v>6.28156439745251</v>
+        <v>6.289692485174599</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317112154841045</v>
+        <v>-2.314627152990318</v>
       </c>
       <c r="G32" t="n">
-        <v>2.045753178753193</v>
+        <v>2.043106111564375</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.3566007269328054</v>
       </c>
       <c r="E33" t="n">
-        <v>6.095827299663742</v>
+        <v>6.106170280339739</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.341299311515038</v>
+        <v>-2.337406823304676</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979223167394756</v>
+        <v>1.977583533388666</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.3407885397597603</v>
       </c>
       <c r="E34" t="n">
-        <v>5.857770838585351</v>
+        <v>5.867318093051803</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382528879530164</v>
+        <v>-2.380918446485891</v>
       </c>
       <c r="G34" t="n">
-        <v>1.89664284737296</v>
+        <v>1.894095063454325</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.319859568110745</v>
       </c>
       <c r="E35" t="n">
-        <v>5.632581781332139</v>
+        <v>5.642298401377136</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.370547724896167</v>
+        <v>-2.368739455335577</v>
       </c>
       <c r="G35" t="n">
-        <v>1.828130090707069</v>
+        <v>1.825921037945525</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.2941345503208177</v>
       </c>
       <c r="E36" t="n">
-        <v>5.443045638410826</v>
+        <v>5.452746197926824</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330221196625268</v>
+        <v>-2.330027740253223</v>
       </c>
       <c r="G36" t="n">
-        <v>1.740960839535547</v>
+        <v>1.738086004844548</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.2637607179634021</v>
       </c>
       <c r="E37" t="n">
-        <v>5.081784479229196</v>
+        <v>5.090835317344739</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270864401537466</v>
+        <v>-2.270260671651875</v>
       </c>
       <c r="G37" t="n">
-        <v>1.652683411863026</v>
+        <v>1.650903613240208</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2288934286734528</v>
       </c>
       <c r="E38" t="n">
-        <v>4.805603242400998</v>
+        <v>4.816350656398176</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164660503404768</v>
+        <v>-2.165270803506767</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551265551372326</v>
+        <v>1.550944340792326</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1898297459683066</v>
       </c>
       <c r="E39" t="n">
-        <v>4.511625479392713</v>
+        <v>4.522456116131073</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146660300515999</v>
+        <v>-2.147442886292727</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438619921062538</v>
+        <v>1.439168899144719</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1462747265524971</v>
       </c>
       <c r="E40" t="n">
-        <v>4.243566490094239</v>
+        <v>4.254153298801418</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117896623101053</v>
+        <v>-2.118579195583552</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384627342660734</v>
+        <v>1.383320599619371</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.09836095610811786</v>
       </c>
       <c r="E41" t="n">
-        <v>3.950534838248863</v>
+        <v>3.959683499586497</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028062054139577</v>
+        <v>-2.028816168978531</v>
       </c>
       <c r="G41" t="n">
-        <v>1.26401861006313</v>
+        <v>1.262955695052948</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.04708442550130326</v>
       </c>
       <c r="E42" t="n">
-        <v>3.696755119279477</v>
+        <v>3.705235078591474</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933471378521966</v>
+        <v>-1.934135700403329</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158922888431431</v>
+        <v>1.158077520586795</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.006175490507597247</v>
       </c>
       <c r="E43" t="n">
-        <v>3.425097111436914</v>
+        <v>3.434550922825547</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865525850539393</v>
+        <v>-1.866508462904575</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065443309411001</v>
+        <v>1.065015515320365</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.05985819741249895</v>
       </c>
       <c r="E44" t="n">
-        <v>3.156312478237258</v>
+        <v>3.166223284678347</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825590615156859</v>
+        <v>-1.826238876509222</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9309451393245831</v>
+        <v>0.9312356888946739</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1121042704558536</v>
       </c>
       <c r="E45" t="n">
-        <v>2.898406663362964</v>
+        <v>2.908371491583416</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743597234467608</v>
+        <v>-1.743222002108244</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8113759609677061</v>
+        <v>0.8108313630297972</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1613372184287937</v>
       </c>
       <c r="E46" t="n">
-        <v>2.65081754829903</v>
+        <v>2.659548635882664</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695894543241439</v>
+        <v>-1.694989313425076</v>
       </c>
       <c r="G46" t="n">
-        <v>0.769768970521081</v>
+        <v>0.7699952779751718</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2066584760513039</v>
       </c>
       <c r="E47" t="n">
-        <v>2.35032359066102</v>
+        <v>2.359415310123109</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648983198080542</v>
+        <v>-1.648172871390088</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6634818496472004</v>
+        <v>0.6630788763741096</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2474131227318042</v>
       </c>
       <c r="E48" t="n">
-        <v>2.159596048497526</v>
+        <v>2.167865760884433</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614857494051733</v>
+        <v>-1.613854441013279</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6010355927990353</v>
+        <v>0.600864767172399</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2833104526893454</v>
       </c>
       <c r="E49" t="n">
-        <v>1.961933277902215</v>
+        <v>1.970273072597486</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566871553495928</v>
+        <v>-1.565391064731747</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5402377302455061</v>
+        <v>0.539744233990779</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3148526247439245</v>
       </c>
       <c r="E50" t="n">
-        <v>1.851039705301518</v>
+        <v>1.858199781139334</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.494149478183947</v>
+        <v>-1.492375519753494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4789799525433408</v>
+        <v>0.4785171172985228</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.342985596968378</v>
       </c>
       <c r="E51" t="n">
-        <v>1.674008874278838</v>
+        <v>1.681120768529654</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.437874844616054</v>
+        <v>-1.435046731463963</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4202071766919021</v>
+        <v>0.4205502879932656</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.368565175051058</v>
       </c>
       <c r="E52" t="n">
-        <v>1.555711397809143</v>
+        <v>1.56271232840505</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.398546989239337</v>
+        <v>-1.395285241804247</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3396461031798327</v>
+        <v>0.339514698851651</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3925131174228326</v>
       </c>
       <c r="E53" t="n">
-        <v>1.380304140263553</v>
+        <v>1.385458110024461</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.360249927814802</v>
+        <v>-1.357653962309166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2723539467179417</v>
+        <v>0.2727861209528507</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4153511938249629</v>
       </c>
       <c r="E54" t="n">
-        <v>1.32639186450675</v>
+        <v>1.332823376347202</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.341329164604716</v>
+        <v>-1.338860223282989</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2220114885434098</v>
+        <v>0.2211690407949555</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4373276533954598</v>
       </c>
       <c r="E55" t="n">
-        <v>1.205390378972691</v>
+        <v>1.210266939596326</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304362206990999</v>
+        <v>-1.302664171061272</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1632985746636983</v>
+        <v>0.1646578794363343</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4582749943710641</v>
       </c>
       <c r="E56" t="n">
-        <v>1.17481259180479</v>
+        <v>1.180077525220607</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.252556780629376</v>
+        <v>-1.249803129929922</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1020743780676238</v>
+        <v>0.1043637334741687</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4782801195428769</v>
       </c>
       <c r="E57" t="n">
-        <v>1.083231075302542</v>
+        <v>1.088944243482268</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.243022666595742</v>
+        <v>-1.241369892156834</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05853282390054461</v>
+        <v>0.06083531973990763</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4976370230592768</v>
       </c>
       <c r="E58" t="n">
-        <v>1.028836983675739</v>
+        <v>1.035262655323828</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205435188543389</v>
+        <v>-1.203759053335026</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01916071516097998</v>
+        <v>-0.01615447614179898</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5162496347048439</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9204619940318586</v>
+        <v>0.9266905591876752</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.121927737983866</v>
+        <v>-1.119936232387866</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09574461767341397</v>
+        <v>-0.09255733269096028</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5342191419991935</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8937898355071385</v>
+        <v>0.902401199147318</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102617141933507</v>
+        <v>-1.100752660521417</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1229832748574066</v>
+        <v>-0.1195755226132258</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5522964085356608</v>
       </c>
       <c r="E61" t="n">
-        <v>0.761404355008265</v>
+        <v>0.7695017817204446</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.073579705501515</v>
+        <v>-1.071008560813425</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1523944836006715</v>
+        <v>-0.1486406999589452</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.571029344910596</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7224152307886391</v>
+        <v>0.7300396019193643</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.068214028767426</v>
+        <v>-1.065863351341062</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2265620065226516</v>
+        <v>-0.2235747481286524</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5904215270328306</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6308906561619364</v>
+        <v>0.6390961264328433</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.102877030493689</v>
+        <v>-1.100444590374235</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2422356227785565</v>
+        <v>-0.2386482846191938</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6100758342531779</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5388317039339611</v>
+        <v>0.5491907451389583</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.08951029022142</v>
+        <v>-1.086536172260239</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2938862840425426</v>
+        <v>-0.2893075732294529</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6295759494405112</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4530538785930751</v>
+        <v>0.4637983724940721</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.05684609433161</v>
+        <v>-1.054321671182429</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3274221286426245</v>
+        <v>-0.3220024301291714</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6485553392905994</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4050022358731789</v>
+        <v>0.4152225725095398</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072309463662424</v>
+        <v>-1.069831762052152</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3558901463191623</v>
+        <v>-0.350521549488891</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.666832095525962</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3751077512118232</v>
+        <v>0.3864786057438202</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.091344110623601</v>
+        <v>-1.088180186410602</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3908130366056075</v>
+        <v>-0.3841055756759729</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6837098807452106</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2953730649192083</v>
+        <v>0.3070446893579324</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.105765005617506</v>
+        <v>-1.103442069104871</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4001047826561504</v>
+        <v>-0.3944456362557883</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6980820453213678</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1900641762662366</v>
+        <v>0.2025402872030514</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146386463602768</v>
+        <v>-1.144759970029496</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4243561814461439</v>
+        <v>-0.4176647810455094</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7084697648797341</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1269360769596171</v>
+        <v>0.1391187182301593</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194530089352392</v>
+        <v>-1.192620346449483</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4405816958804123</v>
+        <v>-0.4346480604389593</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7132367227478986</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07778647807535762</v>
+        <v>0.08863317534271835</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279050813287005</v>
+        <v>-1.278823045784824</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5004232269343962</v>
+        <v>-0.4950108286613977</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7110001481084695</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01003395454470971</v>
+        <v>0.001874197684741639</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315156342527086</v>
+        <v>-1.315058519304996</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4942092622594888</v>
+        <v>-0.4891239147588538</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7007376951352315</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02329557135443342</v>
+        <v>-0.01173783066680016</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305655809599544</v>
+        <v>-1.305165233440998</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5441268464395663</v>
+        <v>-0.5391772834113858</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6821647795796655</v>
       </c>
       <c r="E74" t="n">
-        <v>0.007070508840285697</v>
+        <v>0.01842530284328265</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.345983797918533</v>
+        <v>-1.345567684212624</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5280779978242979</v>
+        <v>-0.524462918751208</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6556018689837689</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01219381759128432</v>
+        <v>0.02371359702855396</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395523229643065</v>
+        <v>-1.39566047416361</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4794583963970382</v>
+        <v>-0.4753907024157666</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6216372017483549</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06462560458390661</v>
+        <v>0.07512043026135834</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342089849660079</v>
+        <v>-1.341825580955625</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4900349847675808</v>
+        <v>-0.4858534070352183</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5812158669675687</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1777267698980581</v>
+        <v>0.1883018982205098</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340253109161716</v>
+        <v>-1.340045782332807</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4353707842439591</v>
+        <v>-0.4315965599289601</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5356205282792419</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2640623336096712</v>
+        <v>0.2729511063871234</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306239828835907</v>
+        <v>-1.305934678784907</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4359110020375954</v>
+        <v>-0.4330055063366871</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4860290756904979</v>
       </c>
       <c r="E79" t="n">
-        <v>0.357296624550828</v>
+        <v>0.3650640803944623</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.323931231553448</v>
+        <v>-1.321192181334903</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4039447091352403</v>
+        <v>-0.4012333998304228</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4332981699576215</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4617557652148909</v>
+        <v>0.4676047178670711</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338305405008444</v>
+        <v>-1.337255630431081</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3452259550631652</v>
+        <v>-0.3431570669183475</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3788268399572491</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5619369649725913</v>
+        <v>0.5662368066003174</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286152487201185</v>
+        <v>-1.285307119356549</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2933081049985428</v>
+        <v>-0.2918509770038158</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3234259672137073</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6994077929720998</v>
+        <v>0.7021322427097354</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222225741588839</v>
+        <v>-1.220285337676021</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2601825339120062</v>
+        <v>-0.2585136989440975</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2674443841853806</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8559702098083305</v>
+        <v>0.8576127639106028</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165099899983945</v>
+        <v>-1.164085166560763</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2167256625341997</v>
+        <v>-0.2153663577615637</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2112316552136456</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026186996390739</v>
+        <v>1.026724294088194</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074757964310878</v>
+        <v>-1.073192792757424</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1650224395389408</v>
+        <v>-0.1655509769478498</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1551511902036542</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122509289044168</v>
+        <v>1.120741170806077</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.004986646190624</v>
+        <v>-1.002428641935352</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1306441471904046</v>
+        <v>-0.131388771716768</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09997758856247291</v>
       </c>
       <c r="E86" t="n">
-        <v>1.289157718092396</v>
+        <v>1.285900350801579</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9287619155085539</v>
+        <v>-0.926186390676191</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04544450089351838</v>
+        <v>-0.04649865561515446</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04683892181261046</v>
       </c>
       <c r="E87" t="n">
-        <v>1.386325378590461</v>
+        <v>1.383834536547371</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8285588150294899</v>
+        <v>-0.8261672562565815</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01626397974861713</v>
+        <v>-0.01707430643907145</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.002814197533543979</v>
       </c>
       <c r="E88" t="n">
-        <v>1.473862561880892</v>
+        <v>1.471114751373802</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.700016181105888</v>
+        <v>-0.6987576196515247</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03513263314755089</v>
+        <v>0.03417046145564206</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04677583079075009</v>
       </c>
       <c r="E89" t="n">
-        <v>1.571568980124502</v>
+        <v>1.568651804038866</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5688761216285596</v>
+        <v>-0.5667867928104693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08021453805053878</v>
+        <v>0.07986704660490251</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08193507788424557</v>
       </c>
       <c r="E90" t="n">
-        <v>1.633015104030395</v>
+        <v>1.628741543268305</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.439578642841958</v>
+        <v>-0.438314241195231</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09388058818144421</v>
+        <v>0.09290673610480811</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1053454917554955</v>
       </c>
       <c r="E91" t="n">
-        <v>1.677951004124292</v>
+        <v>1.67272695205502</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2808728754082733</v>
+        <v>-0.2785032173567285</v>
       </c>
       <c r="G91" t="n">
-        <v>0.108612473418713</v>
+        <v>0.1071626456644406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1148630561600629</v>
       </c>
       <c r="E92" t="n">
-        <v>1.707841108641375</v>
+        <v>1.702414109887467</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.120226704061771</v>
+        <v>-0.1193944766499531</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1038220556324415</v>
+        <v>0.1037840943820779</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1108773884888078</v>
       </c>
       <c r="E93" t="n">
-        <v>1.703868317786012</v>
+        <v>1.698750849227377</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03884699549082262</v>
+        <v>0.03871559116264084</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09964923818862448</v>
+        <v>0.09943753121544271</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09617614067310003</v>
       </c>
       <c r="E94" t="n">
-        <v>1.652696552295844</v>
+        <v>1.647079747290118</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1501347810760655</v>
+        <v>0.148543328656975</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06058711156445314</v>
+        <v>0.0601768380509078</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0752085841710831</v>
       </c>
       <c r="E95" t="n">
-        <v>1.563456952931413</v>
+        <v>1.556866295849051</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2355125532400425</v>
+        <v>0.2333049605265886</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01167258042282992</v>
+        <v>0.01177624383728443</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05285763866669281</v>
       </c>
       <c r="E96" t="n">
-        <v>1.439856581795537</v>
+        <v>1.433725839861812</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3150369926075666</v>
+        <v>0.3126381335942037</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02898829886088644</v>
+        <v>-0.02828455568106844</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03376772131376972</v>
       </c>
       <c r="E97" t="n">
-        <v>1.285926631667215</v>
+        <v>1.279208950400944</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3640435067789171</v>
+        <v>0.3624082529170994</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04978960401206267</v>
+        <v>-0.04895153640788108</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02084636508601706</v>
       </c>
       <c r="E98" t="n">
-        <v>1.152174546155251</v>
+        <v>1.146643883986889</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3829190084981848</v>
+        <v>0.3817684906025487</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08722231696677989</v>
+        <v>-0.08620466344741654</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.01596859742097092</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9970415164000199</v>
+        <v>0.9927694156860211</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3779519248929134</v>
+        <v>0.3769576321430045</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1276203875941327</v>
+        <v>-0.1265516323915875</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01579065926589893</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8876853744390493</v>
+        <v>0.8848061596037773</v>
       </c>
       <c r="F100" t="n">
-        <v>0.346886481662649</v>
+        <v>0.3464689079086491</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1422164883589469</v>
+        <v>-0.1410134087320382</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01680406334884856</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7460183682262691</v>
+        <v>0.744356833498815</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3475201425341033</v>
+        <v>0.3478194523927396</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1345526959297672</v>
+        <v>-0.1335029213524038</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01298650896430357</v>
       </c>
       <c r="E102" t="n">
-        <v>0.633311415896663</v>
+        <v>0.6306380678422092</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3049188593375693</v>
+        <v>0.3051174258779329</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946979169866601</v>
+        <v>-0.1945665126584784</v>
       </c>
     </row>
   </sheetData>
